--- a/charts.xlsx
+++ b/charts.xlsx
@@ -15,46 +15,46 @@
     <sheet name="uniswap" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$331</definedName>
-    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$331</definedName>
-    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$331</definedName>
-    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$331</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$331</definedName>
-    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$331</definedName>
-    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$331</definedName>
-    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$331</definedName>
-    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$331</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$331</definedName>
-    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$331</definedName>
-    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$331</definedName>
-    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$331</definedName>
-    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$331</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$331</definedName>
-    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$331</definedName>
-    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$331</definedName>
-    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$331</definedName>
-    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$331</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$331</definedName>
-    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$331</definedName>
-    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$331</definedName>
-    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$331</definedName>
-    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$331</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$331</definedName>
-    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$331</definedName>
-    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$331</definedName>
-    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$331</definedName>
-    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$331</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$331</definedName>
-    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$331</definedName>
-    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$331</definedName>
-    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$331</definedName>
-    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$331</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$331</definedName>
-    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$331</definedName>
-    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$331</definedName>
-    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$331</definedName>
-    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$331</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$331</definedName>
+    <definedName name="id" localSheetId="0">'bitcoin'!$A$2:$A$332</definedName>
+    <definedName name="symbol" localSheetId="0">'bitcoin'!$B$2:$B$332</definedName>
+    <definedName name="current_price" localSheetId="0">'bitcoin'!$C$2:$C$332</definedName>
+    <definedName name="last_updated" localSheetId="0">'bitcoin'!$D$2:$D$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bitcoin'!$A$1:$D$332</definedName>
+    <definedName name="id" localSheetId="1">'cardano'!$A$2:$A$332</definedName>
+    <definedName name="symbol" localSheetId="1">'cardano'!$B$2:$B$332</definedName>
+    <definedName name="current_price" localSheetId="1">'cardano'!$C$2:$C$332</definedName>
+    <definedName name="last_updated" localSheetId="1">'cardano'!$D$2:$D$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cardano'!$A$1:$D$332</definedName>
+    <definedName name="id" localSheetId="2">'chainlink'!$A$2:$A$332</definedName>
+    <definedName name="symbol" localSheetId="2">'chainlink'!$B$2:$B$332</definedName>
+    <definedName name="current_price" localSheetId="2">'chainlink'!$C$2:$C$332</definedName>
+    <definedName name="last_updated" localSheetId="2">'chainlink'!$D$2:$D$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chainlink'!$A$1:$D$332</definedName>
+    <definedName name="id" localSheetId="3">'dogecoin'!$A$2:$A$332</definedName>
+    <definedName name="symbol" localSheetId="3">'dogecoin'!$B$2:$B$332</definedName>
+    <definedName name="current_price" localSheetId="3">'dogecoin'!$C$2:$C$332</definedName>
+    <definedName name="last_updated" localSheetId="3">'dogecoin'!$D$2:$D$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dogecoin'!$A$1:$D$332</definedName>
+    <definedName name="id" localSheetId="4">'ethereum'!$A$2:$A$332</definedName>
+    <definedName name="symbol" localSheetId="4">'ethereum'!$B$2:$B$332</definedName>
+    <definedName name="current_price" localSheetId="4">'ethereum'!$C$2:$C$332</definedName>
+    <definedName name="last_updated" localSheetId="4">'ethereum'!$D$2:$D$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ethereum'!$A$1:$D$332</definedName>
+    <definedName name="id" localSheetId="5">'litecoin'!$A$2:$A$332</definedName>
+    <definedName name="symbol" localSheetId="5">'litecoin'!$B$2:$B$332</definedName>
+    <definedName name="current_price" localSheetId="5">'litecoin'!$C$2:$C$332</definedName>
+    <definedName name="last_updated" localSheetId="5">'litecoin'!$D$2:$D$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'litecoin'!$A$1:$D$332</definedName>
+    <definedName name="id" localSheetId="6">'solana'!$A$2:$A$332</definedName>
+    <definedName name="symbol" localSheetId="6">'solana'!$B$2:$B$332</definedName>
+    <definedName name="current_price" localSheetId="6">'solana'!$C$2:$C$332</definedName>
+    <definedName name="last_updated" localSheetId="6">'solana'!$D$2:$D$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'solana'!$A$1:$D$332</definedName>
+    <definedName name="id" localSheetId="7">'uniswap'!$A$2:$A$332</definedName>
+    <definedName name="symbol" localSheetId="7">'uniswap'!$B$2:$B$332</definedName>
+    <definedName name="current_price" localSheetId="7">'uniswap'!$C$2:$C$332</definedName>
+    <definedName name="last_updated" localSheetId="7">'uniswap'!$D$2:$D$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'uniswap'!$A$1:$D$332</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -1939,7 +1939,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart138A"/>
+        <xdr:cNvPr id="0" name="Chart6F70"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1974,7 +1974,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1417"/>
+        <xdr:cNvPr id="0" name="Chart6FDE"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2009,7 +2009,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1486"/>
+        <xdr:cNvPr id="0" name="Chart702D"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2044,7 +2044,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart14F4"/>
+        <xdr:cNvPr id="0" name="Chart708C"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2079,7 +2079,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1582"/>
+        <xdr:cNvPr id="0" name="Chart70EB"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2114,7 +2114,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart1600"/>
+        <xdr:cNvPr id="0" name="Chart7159"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2149,7 +2149,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart169D"/>
+        <xdr:cNvPr id="0" name="Chart71C7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2184,7 +2184,7 @@
     </xdr:to>
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart175A"/>
+        <xdr:cNvPr id="0" name="Chart7255"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2204,7 +2204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D332"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6850,8 +6850,22 @@
         <v>319</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" s="0">
+        <v>19404.12</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D331"/>
+  <autoFilter ref="A1:D332"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6859,7 +6873,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D332"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11505,8 +11519,22 @@
         <v>319</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C332" s="0">
+        <v>0.379929</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D331"/>
+  <autoFilter ref="A1:D332"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11514,7 +11542,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D332"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16160,8 +16188,22 @@
         <v>319</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C332" s="0">
+        <v>7.07</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D331"/>
+  <autoFilter ref="A1:D332"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16169,7 +16211,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D332"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20815,8 +20857,22 @@
         <v>319</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C332" s="0">
+        <v>0.05967</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D331"/>
+  <autoFilter ref="A1:D332"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -20824,7 +20880,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D332"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25470,8 +25526,22 @@
         <v>319</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C332" s="0">
+        <v>1295.7</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D331"/>
+  <autoFilter ref="A1:D332"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -25479,7 +25549,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D332"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30125,8 +30195,22 @@
         <v>319</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C332" s="0">
+        <v>51.54</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D331"/>
+  <autoFilter ref="A1:D332"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30134,7 +30218,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D332"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -34780,8 +34864,22 @@
         <v>319</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C332" s="0">
+        <v>30.67</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D331"/>
+  <autoFilter ref="A1:D332"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -34789,7 +34887,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D332"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39435,8 +39533,22 @@
         <v>319</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C332" s="0">
+        <v>6.16</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D331"/>
+  <autoFilter ref="A1:D332"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
